--- a/biology/Zoologie/Baccha_elongata/Baccha_elongata.xlsx
+++ b/biology/Zoologie/Baccha_elongata/Baccha_elongata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baccha elongata est une espèce d'insectes diptères brachycères appartenant à la famille des syrphidés (syrphes).
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (1er juin 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (1er juin 2014) :
 Baccha angusta Osten Sacken, 1877
 Baccha cognata Loew, 1863
 Baccha obscuricornis Loew, 1863
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Corps long de 9 à 11 mm, différent des autres syrphes par l'abdomen allongé, fin, se terminant en massue.
 </t>
@@ -577,7 +593,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Paléarctique occidental, Amérique du Nord.
 </t>
@@ -608,7 +626,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adulte visible d'avril à octobre préfère la végétation humide où il peut voler sur place en général à faible hauteur. Il se nourrit sur les fleurs de nectar et de pollen et aussi du miellat des pucerons. 
 Les larves sont aphidiphages.
